--- a/SMTR202212006611_010_2022-12-16/data/output/comparacao_pre_pos_reprocessamento_010.xlsx
+++ b/SMTR202212006611_010_2022-12-16/data/output/comparacao_pre_pos_reprocessamento_010.xlsx
@@ -482,7 +482,7 @@
         <v>100756.68</v>
       </c>
       <c r="F2" t="n">
-        <v>136049.7529799999</v>
+        <v>135630.2510999999</v>
       </c>
     </row>
   </sheetData>

--- a/SMTR202212006611_010_2022-12-16/data/output/comparacao_pre_pos_reprocessamento_010.xlsx
+++ b/SMTR202212006611_010_2022-12-16/data/output/comparacao_pre_pos_reprocessamento_010.xlsx
@@ -482,7 +482,7 @@
         <v>100756.68</v>
       </c>
       <c r="F2" t="n">
-        <v>135630.2510999999</v>
+        <v>169626.8655899999</v>
       </c>
     </row>
   </sheetData>
